--- a/07_SHINY_ID_CNG/database/inconsistencias_2025-03-06.xlsx
+++ b/07_SHINY_ID_CNG/database/inconsistencias_2025-03-06.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365inegi-my.sharepoint.com/personal/jessica_rojas_inegi_org_mx/Documents/DDMRIG2024/2025/ID/G_Inconsistencias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Programacion_FJMD\R\001_Proyectos_R\07_SHINY_ID_CNG\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_B99231273C1969B840E72ED17F7C0F4182CE4F23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0EE4ED8-8B12-4EF6-8A51-ACE5442C1E0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A986F9BD-E927-43C1-A63F-46F3D6A7BB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$R$2175</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21438" uniqueCount="2545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21440" uniqueCount="2546">
   <si>
     <t>censo</t>
   </si>
@@ -7655,6 +7658,9 @@
   </si>
   <si>
     <t>CECC_02001E003</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
   </si>
 </sst>
 </file>
@@ -7990,8 +7996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8077,6 +8083,12 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="L2">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2545</v>
+      </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
@@ -12516,6 +12528,12 @@
       </c>
       <c r="H131" t="s">
         <v>25</v>
+      </c>
+      <c r="L131">
+        <v>99</v>
+      </c>
+      <c r="M131" t="s">
+        <v>2545</v>
       </c>
       <c r="N131" t="s">
         <v>434</v>
